--- a/Tests Data/ME Solar MESM-50W/Commercial emulator/STC/Commercial emulator - ME Solar MESM-50W (STC).xlsx
+++ b/Tests Data/ME Solar MESM-50W/Commercial emulator/STC/Commercial emulator - ME Solar MESM-50W (STC).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Stage\Emulator\Tests Data\ME Solar MESM-50W\Commercial emulator\STC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Stage_GeePs\PV-emulator\Tests Data\ME Solar MESM-50W\Commercial emulator\STC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA88956-8DEB-40A1-8A5E-C53F57D2AB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DCC235-07D6-4C07-A3CC-4FCB134C2739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{217CCB4B-160F-4504-987F-9C10DFEEC66E}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -119,6 +119,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B8D570-ED79-418B-A1D1-0F000D275672}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,388 +486,677 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="B2" s="5">
-        <v>3.024</v>
+      <c r="A2" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3.0261</v>
       </c>
       <c r="C2">
-        <v>2.9574720000000001</v>
+        <f>A2*B2</f>
+        <v>3.3287100000000005</v>
       </c>
       <c r="D2">
-        <v>0.323412698</v>
+        <f>A2/B2</f>
+        <v>0.36350418029807346</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2.6930000000000001</v>
-      </c>
-      <c r="B3" s="5">
-        <v>3.0179999999999998</v>
+      <c r="A3" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3.0203000000000002</v>
       </c>
       <c r="C3">
-        <v>25.260660000000001</v>
+        <f t="shared" ref="C3:C5" si="0">A3*B3</f>
+        <v>8.1548100000000012</v>
       </c>
       <c r="D3">
-        <v>2.773359841</v>
+        <f t="shared" ref="D3:D5" si="1">A3/B3</f>
+        <v>0.8939509320266199</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>4.3479999999999999</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3.012</v>
+      <c r="A4" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3.0129000000000001</v>
       </c>
       <c r="C4">
-        <v>13.096176</v>
+        <f t="shared" si="0"/>
+        <v>13.85934</v>
       </c>
       <c r="D4">
-        <v>1.4435590970000001</v>
+        <f t="shared" si="1"/>
+        <v>1.5267682299445715</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>5.35</v>
-      </c>
-      <c r="B5" s="5">
-        <v>3.0070000000000001</v>
+      <c r="A5" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3.0024000000000002</v>
       </c>
       <c r="C5">
-        <v>16.08745</v>
+        <f t="shared" si="0"/>
+        <v>19.515600000000003</v>
       </c>
       <c r="D5">
-        <v>1.7791819090000001</v>
+        <f t="shared" si="1"/>
+        <v>2.1649347188915531</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>7.66</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2.9950000000000001</v>
+      <c r="A6" s="6">
+        <v>8.5701999999999998</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2.9910000000000001</v>
       </c>
       <c r="C6">
-        <v>22.941700000000001</v>
+        <f t="shared" ref="C6" si="2">A6*B6</f>
+        <v>25.633468199999999</v>
       </c>
       <c r="D6">
-        <v>2.5575959930000001</v>
+        <f t="shared" ref="D6" si="3">A6/B6</f>
+        <v>2.8653293212972248</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2.99</v>
+      <c r="A7" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2.9849999999999999</v>
       </c>
       <c r="C7">
-        <v>25.026299999999999</v>
+        <f t="shared" ref="C7:C24" si="4">A7*B7</f>
+        <v>28.059000000000001</v>
       </c>
       <c r="D7">
-        <v>2.7993311040000002</v>
+        <f t="shared" ref="D7:D24" si="5">A7/B7</f>
+        <v>3.1490787269681744</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>9.39</v>
-      </c>
-      <c r="B8" s="5">
-        <v>2.9830000000000001</v>
+      <c r="A8" s="6">
+        <v>13.06</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2.95</v>
       </c>
       <c r="C8">
-        <v>28.010370000000002</v>
+        <f t="shared" si="4"/>
+        <v>38.527000000000001</v>
       </c>
       <c r="D8">
-        <v>3.1478377470000001</v>
+        <f t="shared" si="5"/>
+        <v>4.4271186440677965</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>11.58</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2.9649999999999999</v>
+      <c r="A9" s="6">
+        <v>13.8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2.9382000000000001</v>
       </c>
       <c r="C9">
-        <v>34.334699999999998</v>
+        <f t="shared" si="4"/>
+        <v>40.547160000000005</v>
       </c>
       <c r="D9">
-        <v>3.9055649240000001</v>
+        <f t="shared" si="5"/>
+        <v>4.6967531141515213</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>12.91</v>
-      </c>
-      <c r="B10" s="5">
-        <v>2.95</v>
+      <c r="A10" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2.88</v>
       </c>
       <c r="C10">
-        <v>38.084499999999998</v>
+        <f t="shared" si="4"/>
+        <v>46.655999999999999</v>
       </c>
       <c r="D10">
-        <v>4.3762711860000003</v>
+        <f t="shared" si="5"/>
+        <v>5.625</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>13.86</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2.9369999999999998</v>
+      <c r="A11" s="6">
+        <v>17.677399999999999</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2.8180000000000001</v>
       </c>
       <c r="C11">
-        <v>40.70682</v>
+        <f t="shared" si="4"/>
+        <v>49.814913199999999</v>
       </c>
       <c r="D11">
-        <v>4.7191011239999998</v>
+        <f t="shared" si="5"/>
+        <v>6.2730305180979409</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>15.93</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2.8959999999999999</v>
+      <c r="A12" s="6">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2.59</v>
       </c>
       <c r="C12">
-        <v>46.133279999999999</v>
+        <f t="shared" si="4"/>
+        <v>48.769699999999993</v>
       </c>
       <c r="D12">
-        <v>5.5006906080000002</v>
+        <f t="shared" si="5"/>
+        <v>7.2702702702702702</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>16.260000000000002</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2.887</v>
+      <c r="A13" s="6">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2.2050000000000001</v>
       </c>
       <c r="C13">
-        <v>46.942619999999998</v>
+        <f t="shared" si="4"/>
+        <v>42.777000000000001</v>
       </c>
       <c r="D13">
-        <v>5.632144094</v>
+        <f t="shared" si="5"/>
+        <v>8.7981859410430836</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>17.38</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2.843</v>
+      <c r="A14" s="6">
+        <v>20.174199999999999</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1.61</v>
       </c>
       <c r="C14">
-        <v>49.411340000000003</v>
+        <f t="shared" si="4"/>
+        <v>32.480462000000003</v>
       </c>
       <c r="D14">
-        <v>6.11326064</v>
+        <f t="shared" si="5"/>
+        <v>12.530559006211179</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>18.86</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2.6619999999999999</v>
+      <c r="A15" s="6">
+        <v>20.939</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1.0329999999999999</v>
       </c>
       <c r="C15">
-        <v>50.20532</v>
+        <f t="shared" si="4"/>
+        <v>21.629987</v>
       </c>
       <c r="D15">
-        <v>7.0848985730000003</v>
+        <f t="shared" si="5"/>
+        <v>20.270087124878994</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2.2429999999999999</v>
+      <c r="A16" s="6">
+        <v>21.12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.89</v>
       </c>
       <c r="C16">
-        <v>43.962800000000001</v>
+        <f t="shared" si="4"/>
+        <v>18.796800000000001</v>
       </c>
       <c r="D16">
-        <v>8.7382969240000001</v>
+        <f t="shared" si="5"/>
+        <v>23.730337078651687</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>19.920000000000002</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2.0259999999999998</v>
+      <c r="A17" s="6">
+        <v>21.484999999999999</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.61460000000000004</v>
       </c>
       <c r="C17">
-        <v>40.35792</v>
+        <f t="shared" si="4"/>
+        <v>13.204681000000001</v>
       </c>
       <c r="D17">
-        <v>9.8321816389999999</v>
+        <f t="shared" si="5"/>
+        <v>34.957696062479656</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>20.309999999999999</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1.764</v>
+      <c r="A18" s="6">
+        <v>21.758400000000002</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.40620000000000001</v>
       </c>
       <c r="C18">
-        <v>35.826839999999997</v>
+        <f t="shared" si="4"/>
+        <v>8.8382620800000016</v>
       </c>
       <c r="D18">
-        <v>11.513605439999999</v>
+        <f t="shared" si="5"/>
+        <v>53.565731166912855</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>20.62</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1.55</v>
+      <c r="A19" s="6">
+        <v>21.93</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.27739999999999998</v>
       </c>
       <c r="C19">
-        <v>31.960999999999999</v>
+        <f t="shared" si="4"/>
+        <v>6.0833819999999994</v>
       </c>
       <c r="D19">
-        <v>13.303225810000001</v>
+        <f t="shared" si="5"/>
+        <v>79.055515501081473</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>21.04</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1.27</v>
+      <c r="A20" s="6">
+        <v>22.115100000000002</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.1343</v>
       </c>
       <c r="C20">
-        <v>26.720800000000001</v>
+        <f t="shared" si="4"/>
+        <v>2.9700579300000003</v>
       </c>
       <c r="D20">
-        <v>16.566929129999998</v>
+        <f t="shared" si="5"/>
+        <v>164.66939687267313</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>21.2</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1.1559999999999999</v>
-      </c>
-      <c r="C21">
-        <v>24.507200000000001</v>
-      </c>
-      <c r="D21">
-        <v>18.339100349999999</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>21.47</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="C22">
-        <v>20.847370000000002</v>
-      </c>
-      <c r="D22">
-        <v>22.11122554</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>21.78</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="C23">
-        <v>16.63992</v>
-      </c>
-      <c r="D23">
-        <v>28.507853399999998</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>21.96</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="C24">
-        <v>14.230079999999999</v>
-      </c>
-      <c r="D24">
-        <v>33.888888889999997</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>22.18</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.496</v>
-      </c>
-      <c r="C25">
-        <v>11.00128</v>
-      </c>
-      <c r="D25">
-        <v>44.717741940000003</v>
-      </c>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>22.33</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="C26">
-        <v>8.7533600000000007</v>
-      </c>
-      <c r="D26">
-        <v>56.964285709999999</v>
-      </c>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>22.42</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C27">
-        <v>7.4658600000000002</v>
-      </c>
-      <c r="D27">
-        <v>67.327327330000003</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>22.73</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.129</v>
-      </c>
-      <c r="C28">
-        <v>2.9321700000000002</v>
-      </c>
-      <c r="D28">
-        <v>176.2015504</v>
-      </c>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B20">
+    <sortCondition ref="A2:A20"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
